--- a/FUNCION HASH/RESULTADOS/mining_target/resultados.xlsx
+++ b/FUNCION HASH/RESULTADOS/mining_target/resultados.xlsx
@@ -14,7 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>0xFFFFFFFF</t>
+  </si>
+  <si>
+    <t>0x7FFFFFFF</t>
+  </si>
+  <si>
+    <t>0x00FFFFFF</t>
+  </si>
+  <si>
+    <t>0x000FFFFF</t>
+  </si>
+  <si>
+    <t>0x0000FFFF</t>
+  </si>
+  <si>
+    <t>0x00000FFF</t>
+  </si>
+  <si>
+    <t>0x000000FF</t>
+  </si>
+  <si>
+    <t>0x0000000F</t>
+  </si>
+  <si>
+    <t>0x00000001</t>
+  </si>
+  <si>
+    <t>0x00000000</t>
+  </si>
   <si>
     <t>Local Size</t>
   </si>
@@ -378,463 +408,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="16" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>1.844674407370955E+19</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1.152921504606847E+18</v>
-      </c>
-      <c r="D1" s="2">
-        <v>7.205759403792794E+16</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4503599627370495</v>
-      </c>
-      <c r="F1" s="2">
-        <v>281474976710655</v>
-      </c>
-      <c r="G1" s="2">
-        <v>17592186044415</v>
-      </c>
-      <c r="H1" s="2">
-        <v>1099511627775</v>
-      </c>
-      <c r="I1" s="2">
-        <v>68719476735</v>
-      </c>
-      <c r="J1" s="2">
-        <v>4294967295</v>
-      </c>
-      <c r="K1" s="2">
-        <v>268435455</v>
-      </c>
-      <c r="L1" s="2">
-        <v>1048575</v>
-      </c>
-      <c r="M1" s="2">
-        <v>65535</v>
-      </c>
-      <c r="N1" s="2">
-        <v>4095</v>
-      </c>
-      <c r="O1" s="2">
-        <v>255</v>
-      </c>
-      <c r="P1" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0006707200000000001</v>
+        <v>0.002735416</v>
       </c>
       <c r="C2" s="1">
-        <v>0.000423936</v>
+        <v>0.002491979</v>
       </c>
       <c r="D2" s="1">
-        <v>0.000414496</v>
+        <v>0.002492656</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000415744</v>
+        <v>0.002545729</v>
       </c>
       <c r="F2" s="1">
-        <v>0.000416768</v>
+        <v>0.002459947</v>
       </c>
       <c r="G2" s="1">
-        <v>0.000400384</v>
+        <v>0.002790989</v>
       </c>
       <c r="H2" s="1">
-        <v>0.000423712</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.000415744</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.000421696</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.000418496</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.00041984</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.000418816</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.000411392</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.000427264</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.000418752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>0.002707968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.000170944</v>
+        <v>0.001624322</v>
       </c>
       <c r="C3" s="1">
-        <v>0.000165088</v>
+        <v>0.00186302</v>
       </c>
       <c r="D3" s="1">
-        <v>0.000162816</v>
+        <v>0.001525989</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000167712</v>
+        <v>0.001842812</v>
       </c>
       <c r="F3" s="1">
-        <v>0.000167936</v>
+        <v>0.001585833</v>
       </c>
       <c r="G3" s="1">
-        <v>0.000157696</v>
+        <v>0.001714687</v>
       </c>
       <c r="H3" s="1">
-        <v>0.00017104</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.000160768</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.000161088</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.000161792</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.000169792</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.000165888</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.000165888</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.000169984</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.000174784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0.001481822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.000109568</v>
+        <v>0.001197604</v>
       </c>
       <c r="C4" s="1">
-        <v>0.000108352</v>
+        <v>0.000930729</v>
       </c>
       <c r="D4" s="1">
-        <v>0.000105696</v>
+        <v>0.000906614</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0001072</v>
+        <v>0.00106427</v>
       </c>
       <c r="F4" s="1">
-        <v>0.000103424</v>
+        <v>0.001048802</v>
       </c>
       <c r="G4" s="1">
-        <v>0.000107392</v>
+        <v>0.0008934370000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>0.000107296</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.000107296</v>
-      </c>
-      <c r="J4" s="1">
-        <v>9.936000000000001E-05</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.00010624</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.000104768</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.000108544</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.000105472</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.000106272</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.000105472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0.001030833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>4.5056E-05</v>
+        <v>0.0007739060000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>4.4032E-05</v>
+        <v>0.0007565100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>4.7104E-05</v>
+        <v>0.000673906</v>
       </c>
       <c r="E5" s="1">
-        <v>5.0176E-05</v>
+        <v>0.000679687</v>
       </c>
       <c r="F5" s="1">
-        <v>4.8128E-05</v>
+        <v>0.000702708</v>
       </c>
       <c r="G5" s="1">
-        <v>4.7456E-05</v>
+        <v>0.000693385</v>
       </c>
       <c r="H5" s="1">
-        <v>5.2192E-05</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5.0176E-05</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5.0176E-05</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5.1424E-05</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5.203200000000001E-05</v>
-      </c>
-      <c r="M5" s="1">
-        <v>4.915200000000001E-05</v>
-      </c>
-      <c r="N5" s="1">
-        <v>4.9888E-05</v>
-      </c>
-      <c r="O5" s="1">
-        <v>4.915200000000001E-05</v>
-      </c>
-      <c r="P5" s="1">
-        <v>5.0176E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0.0008849470000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>2.2432E-05</v>
+        <v>0.001536614</v>
       </c>
       <c r="C6" s="1">
-        <v>2.2528E-05</v>
+        <v>0.000759531</v>
       </c>
       <c r="D6" s="1">
-        <v>2.2528E-05</v>
+        <v>0.001249635</v>
       </c>
       <c r="E6" s="1">
-        <v>2.2368E-05</v>
+        <v>0.0007031250000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>2.1504E-05</v>
+        <v>0.001103593</v>
       </c>
       <c r="G6" s="1">
-        <v>2.2528E-05</v>
+        <v>0.001308593</v>
       </c>
       <c r="H6" s="1">
-        <v>2.2528E-05</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.2528E-05</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2.2592E-05</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.3456E-05</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2.3552E-05</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2.2304E-05</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2.1728E-05</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2.1664E-05</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2.1824E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>0.000872447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>32</v>
       </c>
       <c r="B7" s="1">
-        <v>1.8208E-05</v>
+        <v>0.000675</v>
       </c>
       <c r="C7" s="1">
-        <v>1.7536E-05</v>
+        <v>0.000677395</v>
       </c>
       <c r="D7" s="1">
-        <v>1.7696E-05</v>
+        <v>0.000657083</v>
       </c>
       <c r="E7" s="1">
-        <v>1.8112E-05</v>
+        <v>0.000913072</v>
       </c>
       <c r="F7" s="1">
-        <v>1.8432E-05</v>
+        <v>0.000640885</v>
       </c>
       <c r="G7" s="1">
-        <v>1.7408E-05</v>
+        <v>0.0008250000000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1.76E-05</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.7408E-05</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.7408E-05</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.7568E-05</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.8272E-05</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.8368E-05</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1.7408E-05</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1.8368E-05</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1.7408E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.000649791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>64</v>
       </c>
       <c r="B8" s="1">
-        <v>2.288E-05</v>
+        <v>0.0008785930000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>2.1504E-05</v>
+        <v>0.000666562</v>
       </c>
       <c r="D8" s="1">
-        <v>2.3232E-05</v>
+        <v>0.001037395</v>
       </c>
       <c r="E8" s="1">
-        <v>2.2528E-05</v>
+        <v>0.00081302</v>
       </c>
       <c r="F8" s="1">
-        <v>2.3552E-05</v>
+        <v>0.000752031</v>
       </c>
       <c r="G8" s="1">
-        <v>2.2528E-05</v>
+        <v>0.00082125</v>
       </c>
       <c r="H8" s="1">
-        <v>2.3552E-05</v>
+        <v>0.0006880720000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>2.2784E-05</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2.3616E-05</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2.2528E-05</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2.56E-05</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2.4576E-05</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2.3552E-05</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2.3872E-05</v>
-      </c>
-      <c r="P8" s="1">
-        <v>2.3552E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>8.223900000000001E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>128</v>
       </c>
       <c r="B9" s="1">
-        <v>2.4672E-05</v>
+        <v>0.000638593</v>
       </c>
       <c r="C9" s="1">
-        <v>2.5568E-05</v>
+        <v>0.000679322</v>
       </c>
       <c r="D9" s="1">
-        <v>2.56E-05</v>
+        <v>0.000636302</v>
       </c>
       <c r="E9" s="1">
-        <v>2.6304E-05</v>
+        <v>0.000979843</v>
       </c>
       <c r="F9" s="1">
-        <v>2.3616E-05</v>
+        <v>0.0006343750000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>2.5408E-05</v>
+        <v>0.0007432290000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>2.576E-05</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2.4576E-05</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2.3488E-05</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2.432E-05</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2.3552E-05</v>
-      </c>
-      <c r="M9" s="1">
-        <v>2.3552E-05</v>
-      </c>
-      <c r="N9" s="1">
-        <v>2.3584E-05</v>
-      </c>
-      <c r="O9" s="1">
-        <v>2.3552E-05</v>
-      </c>
-      <c r="P9" s="1">
-        <v>2.6624E-05</v>
+        <v>0.000672291</v>
       </c>
     </row>
   </sheetData>

--- a/FUNCION HASH/RESULTADOS/mining_target/resultados.xlsx
+++ b/FUNCION HASH/RESULTADOS/mining_target/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>0xFFFFFFFF</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>0x000000FF</t>
-  </si>
-  <si>
-    <t>0x0000000F</t>
-  </si>
-  <si>
-    <t>0x00000001</t>
-  </si>
-  <si>
-    <t>0x00000000</t>
   </si>
   <si>
     <t>Local Size</t>
@@ -408,18 +399,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -442,225 +433,213 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.002735416</v>
+        <v>0.0007488960000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.002491979</v>
+        <v>0.000748672</v>
       </c>
       <c r="D2" s="1">
-        <v>0.002492656</v>
+        <v>0.001195104</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002545729</v>
+        <v>0.000749568</v>
       </c>
       <c r="F2" s="1">
-        <v>0.002459947</v>
+        <v>0.0007478080000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>0.002790989</v>
+        <v>0.0007485440000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>0.002707968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.0007485440000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.001624322</v>
+        <v>0.000388096</v>
       </c>
       <c r="C3" s="1">
-        <v>0.00186302</v>
+        <v>0.000388096</v>
       </c>
       <c r="D3" s="1">
-        <v>0.001525989</v>
+        <v>0.000388</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001842812</v>
+        <v>0.000388096</v>
       </c>
       <c r="F3" s="1">
-        <v>0.001585833</v>
+        <v>0.000388096</v>
       </c>
       <c r="G3" s="1">
-        <v>0.001714687</v>
+        <v>0.00038736</v>
       </c>
       <c r="H3" s="1">
-        <v>0.001481822</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.000387232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.001197604</v>
+        <v>0.000207936</v>
       </c>
       <c r="C4" s="1">
-        <v>0.000930729</v>
+        <v>0.000207648</v>
       </c>
       <c r="D4" s="1">
-        <v>0.000906614</v>
+        <v>0.000208896</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00106427</v>
+        <v>0.000207872</v>
       </c>
       <c r="F4" s="1">
-        <v>0.001048802</v>
+        <v>0.000206912</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0008934370000000001</v>
+        <v>0.000206848</v>
       </c>
       <c r="H4" s="1">
-        <v>0.001030833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.00020784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0.0007739060000000001</v>
+        <v>0.00011776</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0007565100000000001</v>
+        <v>0.000118528</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000673906</v>
+        <v>0.000117408</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000679687</v>
+        <v>0.000117088</v>
       </c>
       <c r="F5" s="1">
-        <v>0.000702708</v>
+        <v>0.00011696</v>
       </c>
       <c r="G5" s="1">
-        <v>0.000693385</v>
+        <v>0.00011776</v>
       </c>
       <c r="H5" s="1">
-        <v>0.0008849470000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.00011776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>0.001536614</v>
+        <v>7.372800000000001E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>0.000759531</v>
+        <v>7.372800000000001E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0.001249635</v>
+        <v>7.344E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0007031250000000001</v>
+        <v>7.372800000000001E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>0.001103593</v>
+        <v>7.408000000000001E-05</v>
       </c>
       <c r="G6" s="1">
-        <v>0.001308593</v>
+        <v>7.376E-05</v>
       </c>
       <c r="H6" s="1">
-        <v>0.000872447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>7.475200000000001E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>32</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000675</v>
+        <v>5.632E-05</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000677395</v>
+        <v>5.5296E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000657083</v>
+        <v>5.619200000000001E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000913072</v>
+        <v>5.6064E-05</v>
       </c>
       <c r="F7" s="1">
-        <v>0.000640885</v>
+        <v>5.564800000000001E-05</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0008250000000000001</v>
+        <v>5.600000000000001E-05</v>
       </c>
       <c r="H7" s="1">
-        <v>0.000649791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>5.5392E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>64</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0008785930000000001</v>
+        <v>0.000106208</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000666562</v>
+        <v>0.000106336</v>
       </c>
       <c r="D8" s="1">
-        <v>0.001037395</v>
+        <v>0.00010752</v>
       </c>
       <c r="E8" s="1">
-        <v>0.00081302</v>
+        <v>0.000106496</v>
       </c>
       <c r="F8" s="1">
-        <v>0.000752031</v>
+        <v>0.000106496</v>
       </c>
       <c r="G8" s="1">
-        <v>0.00082125</v>
+        <v>0.000105472</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0006880720000000001</v>
-      </c>
-      <c r="I8" s="1">
-        <v>8.223900000000001E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.000105472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>128</v>
       </c>
       <c r="B9" s="1">
-        <v>0.000638593</v>
+        <v>0.000170784</v>
       </c>
       <c r="C9" s="1">
-        <v>0.000679322</v>
+        <v>0.000175104</v>
       </c>
       <c r="D9" s="1">
-        <v>0.000636302</v>
+        <v>0.000169792</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000979843</v>
+        <v>0.000168032</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0006343750000000001</v>
+        <v>0.000170048</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0007432290000000001</v>
+        <v>0.00016896</v>
       </c>
       <c r="H9" s="1">
-        <v>0.000672291</v>
+        <v>0.000171264</v>
       </c>
     </row>
   </sheetData>

--- a/FUNCION HASH/RESULTADOS/mining_target/resultados.xlsx
+++ b/FUNCION HASH/RESULTADOS/mining_target/resultados.xlsx
@@ -14,27 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>0xFFFFFFFF</t>
-  </si>
-  <si>
-    <t>0x7FFFFFFF</t>
-  </si>
-  <si>
-    <t>0x00FFFFFF</t>
-  </si>
-  <si>
-    <t>0x000FFFFF</t>
-  </si>
-  <si>
-    <t>0x0000FFFF</t>
-  </si>
-  <si>
-    <t>0x00000FFF</t>
-  </si>
-  <si>
-    <t>0x000000FF</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>1.15792e+77</t>
+  </si>
+  <si>
+    <t>5.78960e+76</t>
+  </si>
+  <si>
+    <t>4.52313e+74</t>
+  </si>
+  <si>
+    <t>2.82696e+73</t>
+  </si>
+  <si>
+    <t>1.76685e+72</t>
+  </si>
+  <si>
+    <t>1.10428e+71</t>
+  </si>
+  <si>
+    <t>6.90175e+69</t>
+  </si>
+  <si>
+    <t>4.04505e+68</t>
   </si>
   <si>
     <t>Local Size</t>
@@ -399,18 +402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="9" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -433,34 +436,37 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0007488960000000001</v>
+        <v>0.0007485440000000001</v>
       </c>
       <c r="C2" s="1">
+        <v>0.000748416</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.000748672</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.001195104</v>
-      </c>
       <c r="E2" s="1">
-        <v>0.000749568</v>
+        <v>0.000749504</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0007478080000000001</v>
+        <v>0.000748512</v>
       </c>
       <c r="G2" s="1">
         <v>0.0007485440000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0007485440000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.000747872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -468,51 +474,51 @@
         <v>0.000388096</v>
       </c>
       <c r="C3" s="1">
-        <v>0.000388096</v>
+        <v>0.000388832</v>
       </c>
       <c r="D3" s="1">
-        <v>0.000388</v>
+        <v>0.000389056</v>
       </c>
       <c r="E3" s="1">
         <v>0.000388096</v>
       </c>
       <c r="F3" s="1">
-        <v>0.000388096</v>
+        <v>0.00038912</v>
       </c>
       <c r="G3" s="1">
-        <v>0.00038736</v>
+        <v>0.00038896</v>
       </c>
       <c r="H3" s="1">
-        <v>0.000387232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.000387872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.000207936</v>
+        <v>0.000207872</v>
       </c>
       <c r="C4" s="1">
-        <v>0.000207648</v>
+        <v>0.000207808</v>
       </c>
       <c r="D4" s="1">
-        <v>0.000208896</v>
+        <v>0.000207872</v>
       </c>
       <c r="E4" s="1">
         <v>0.000207872</v>
       </c>
       <c r="F4" s="1">
-        <v>0.000206912</v>
+        <v>0.000208736</v>
       </c>
       <c r="G4" s="1">
-        <v>0.000206848</v>
+        <v>0.000207872</v>
       </c>
       <c r="H4" s="1">
-        <v>0.00020784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.000207872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -520,126 +526,129 @@
         <v>0.00011776</v>
       </c>
       <c r="C5" s="1">
-        <v>0.000118528</v>
+        <v>0.000117472</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000117408</v>
+        <v>0.000117568</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000117088</v>
+        <v>0.00011776</v>
       </c>
       <c r="F5" s="1">
-        <v>0.00011696</v>
+        <v>0.000117856</v>
       </c>
       <c r="G5" s="1">
-        <v>0.00011776</v>
+        <v>0.000117856</v>
       </c>
       <c r="H5" s="1">
-        <v>0.00011776</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.000117952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>16</v>
       </c>
       <c r="B6" s="1">
+        <v>7.4528E-05</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.472E-05</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.4528E-05</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.475200000000001E-05</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.475200000000001E-05</v>
+      </c>
+      <c r="G6" s="1">
         <v>7.372800000000001E-05</v>
       </c>
-      <c r="C6" s="1">
+      <c r="H6" s="1">
         <v>7.372800000000001E-05</v>
       </c>
-      <c r="D6" s="1">
-        <v>7.344E-05</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7.372800000000001E-05</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7.408000000000001E-05</v>
-      </c>
-      <c r="G6" s="1">
-        <v>7.376E-05</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7.475200000000001E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>32</v>
       </c>
       <c r="B7" s="1">
-        <v>5.632E-05</v>
+        <v>5.5488E-05</v>
       </c>
       <c r="C7" s="1">
+        <v>5.5168E-05</v>
+      </c>
+      <c r="D7" s="1">
         <v>5.5296E-05</v>
       </c>
-      <c r="D7" s="1">
-        <v>5.619200000000001E-05</v>
-      </c>
       <c r="E7" s="1">
-        <v>5.6064E-05</v>
+        <v>5.6288E-05</v>
       </c>
       <c r="F7" s="1">
-        <v>5.564800000000001E-05</v>
+        <v>5.5296E-05</v>
       </c>
       <c r="G7" s="1">
-        <v>5.600000000000001E-05</v>
+        <v>5.5296E-05</v>
       </c>
       <c r="H7" s="1">
         <v>5.5392E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1">
+        <v>7.3472E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>64</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000106208</v>
+        <v>0.000108256</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000106336</v>
+        <v>0.000106496</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00010752</v>
+        <v>0.000106496</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000106496</v>
+        <v>0.000103424</v>
       </c>
       <c r="F8" s="1">
-        <v>0.000106496</v>
+        <v>0.000103584</v>
       </c>
       <c r="G8" s="1">
         <v>0.000105472</v>
       </c>
       <c r="H8" s="1">
-        <v>0.000105472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.000106624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>128</v>
       </c>
       <c r="B9" s="1">
-        <v>0.000170784</v>
+        <v>0.000174336</v>
       </c>
       <c r="C9" s="1">
-        <v>0.000175104</v>
+        <v>0.00017408</v>
       </c>
       <c r="D9" s="1">
-        <v>0.000169792</v>
+        <v>0.000172064</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000168032</v>
+        <v>0.000176128</v>
       </c>
       <c r="F9" s="1">
-        <v>0.000170048</v>
+        <v>0.000172128</v>
       </c>
       <c r="G9" s="1">
-        <v>0.00016896</v>
+        <v>0.00017408</v>
       </c>
       <c r="H9" s="1">
-        <v>0.000171264</v>
+        <v>0.000179104</v>
       </c>
     </row>
   </sheetData>

--- a/FUNCION HASH/RESULTADOS/mining_target/resultados.xlsx
+++ b/FUNCION HASH/RESULTADOS/mining_target/resultados.xlsx
@@ -445,25 +445,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>0.0007484480000000001</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.0007485440000000001</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.000748416</v>
-      </c>
       <c r="D2" s="1">
-        <v>0.000748672</v>
+        <v>0.0007483520000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000749504</v>
+        <v>0.00074752</v>
       </c>
       <c r="F2" s="1">
-        <v>0.000748512</v>
+        <v>0.0007485440000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>0.0007485440000000001</v>
+        <v>0.0007482560000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>0.000747872</v>
+        <v>0.0007483520000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -471,25 +471,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>0.000389152</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.000388096</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.000388832</v>
-      </c>
       <c r="D3" s="1">
-        <v>0.000389056</v>
+        <v>0.000387072</v>
       </c>
       <c r="E3" s="1">
         <v>0.000388096</v>
       </c>
       <c r="F3" s="1">
-        <v>0.00038912</v>
+        <v>0.000388864</v>
       </c>
       <c r="G3" s="1">
-        <v>0.00038896</v>
+        <v>0.000388288</v>
       </c>
       <c r="H3" s="1">
-        <v>0.000387872</v>
+        <v>0.000388352</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -497,25 +497,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
+        <v>0.000207936</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.000207872</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.000207808</v>
-      </c>
       <c r="D4" s="1">
-        <v>0.000207872</v>
+        <v>0.000208896</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000207872</v>
+        <v>0.000207616</v>
       </c>
       <c r="F4" s="1">
-        <v>0.000208736</v>
+        <v>0.000208896</v>
       </c>
       <c r="G4" s="1">
-        <v>0.000207872</v>
+        <v>0.000208128</v>
       </c>
       <c r="H4" s="1">
-        <v>0.000207872</v>
+        <v>0.000208064</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -526,22 +526,22 @@
         <v>0.00011776</v>
       </c>
       <c r="C5" s="1">
-        <v>0.000117472</v>
+        <v>0.000116736</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000117568</v>
+        <v>0.000118592</v>
       </c>
       <c r="E5" s="1">
         <v>0.00011776</v>
       </c>
       <c r="F5" s="1">
-        <v>0.000117856</v>
+        <v>0.00011776</v>
       </c>
       <c r="G5" s="1">
-        <v>0.000117856</v>
+        <v>0.00011792</v>
       </c>
       <c r="H5" s="1">
-        <v>0.000117952</v>
+        <v>0.0001176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -549,13 +549,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>7.4528E-05</v>
+        <v>7.372800000000001E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>7.472E-05</v>
+        <v>7.372800000000001E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>7.4528E-05</v>
+        <v>7.372800000000001E-05</v>
       </c>
       <c r="E6" s="1">
         <v>7.475200000000001E-05</v>
@@ -567,7 +567,7 @@
         <v>7.372800000000001E-05</v>
       </c>
       <c r="H6" s="1">
-        <v>7.372800000000001E-05</v>
+        <v>7.475200000000001E-05</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -575,28 +575,25 @@
         <v>32</v>
       </c>
       <c r="B7" s="1">
+        <v>5.6256E-05</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.600000000000001E-05</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.632E-05</v>
+      </c>
+      <c r="E7" s="1">
         <v>5.5488E-05</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5.5168E-05</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.5296E-05</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5.6288E-05</v>
       </c>
       <c r="F7" s="1">
         <v>5.5296E-05</v>
       </c>
       <c r="G7" s="1">
+        <v>5.616E-05</v>
+      </c>
+      <c r="H7" s="1">
         <v>5.5296E-05</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5.5392E-05</v>
-      </c>
-      <c r="I7" s="1">
-        <v>7.3472E-05</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -604,25 +601,25 @@
         <v>64</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000108256</v>
+        <v>0.000104448</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000106496</v>
+        <v>0.00010272</v>
       </c>
       <c r="D8" s="1">
-        <v>0.000106496</v>
+        <v>0.000105472</v>
       </c>
       <c r="E8" s="1">
+        <v>0.000104544</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.000105472</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.000103424</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.000103584</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.000105472</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.000106624</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -630,25 +627,25 @@
         <v>128</v>
       </c>
       <c r="B9" s="1">
-        <v>0.000174336</v>
+        <v>0.00017424</v>
       </c>
       <c r="C9" s="1">
-        <v>0.00017408</v>
+        <v>0.000175904</v>
       </c>
       <c r="D9" s="1">
-        <v>0.000172064</v>
+        <v>0.000174432</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000176128</v>
+        <v>0.000175104</v>
       </c>
       <c r="F9" s="1">
-        <v>0.000172128</v>
+        <v>0.000169984</v>
       </c>
       <c r="G9" s="1">
-        <v>0.00017408</v>
+        <v>0.000170304</v>
       </c>
       <c r="H9" s="1">
-        <v>0.000179104</v>
+        <v>0.000171008</v>
       </c>
     </row>
   </sheetData>
